--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Freight.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Freight.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="113">
   <si>
     <t>Revenue</t>
   </si>
@@ -267,10 +267,6 @@
   </si>
   <si>
     <t>ProcessShipmentRequest.RequestedShipment.Recipient.Address</t>
-  </si>
-  <si>
-    <t>Freight
- Domestic</t>
   </si>
   <si>
     <t>ProcessShipmentRequest.RequestedShipment.ShippingChargesPayment.Payor.ResponsibleParty</t>
@@ -373,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -529,13 +525,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -602,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -730,21 +719,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1003,26 +977,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1250,12 +1204,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1266,9 +1220,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -1359,7 +1313,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1380,7 +1334,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -1389,7 +1343,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1403,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,7 +1367,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,37 +1379,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,7 +1416,7 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,91 +1429,82 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2248,980 +2190,975 @@
   <sheetPr codeName="Sheet14">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:DK6"/>
+  <dimension ref="A1:DJ6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="3"/>
-    <col min="2" max="2" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="4"/>
-    <col min="10" max="10" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="29" width="20.7109375" style="4"/>
-    <col min="30" max="30" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="50" width="20.7109375" style="4"/>
-    <col min="51" max="51" width="34" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="68" width="20.7109375" style="4"/>
-    <col min="69" max="74" width="22.140625" style="4" customWidth="1"/>
-    <col min="75" max="75" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="25.5703125" style="4" customWidth="1"/>
-    <col min="77" max="87" width="22.140625" style="4" customWidth="1"/>
-    <col min="88" max="88" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="43" style="4" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="20.7109375" style="4"/>
-    <col min="92" max="92" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="101" width="20.7109375" style="4"/>
-    <col min="102" max="102" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="103" max="115" width="20.7109375" style="4"/>
-    <col min="116" max="16384" width="20.7109375" style="3"/>
+    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" style="4" customWidth="1"/>
+    <col min="5" max="8" width="20.7109375" style="4"/>
+    <col min="9" max="9" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="28" width="20.7109375" style="4"/>
+    <col min="29" max="29" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="49" width="20.7109375" style="4"/>
+    <col min="50" max="50" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="67" width="20.7109375" style="4"/>
+    <col min="68" max="73" width="22.140625" style="4" customWidth="1"/>
+    <col min="74" max="74" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="25.5703125" style="4" customWidth="1"/>
+    <col min="76" max="86" width="22.140625" style="4" customWidth="1"/>
+    <col min="87" max="87" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="43" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="20.7109375" style="4"/>
+    <col min="91" max="91" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="100" width="20.7109375" style="4"/>
+    <col min="101" max="101" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="102" max="114" width="20.7109375" style="4"/>
+    <col min="115" max="16384" width="20.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="18" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:110" s="17" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="M1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>32</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="AA1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AG1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI1" s="20" t="s">
+      <c r="BO1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM1" s="15" t="s">
+      <c r="BS1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+    </row>
+    <row r="2" spans="1:110" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110" s="37" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="43">
+        <v>150</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="43">
+        <v>2560</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="43">
+        <v>72601</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>1234567890</v>
+      </c>
+      <c r="Z3" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="43">
+        <v>10005</v>
+      </c>
+      <c r="AD3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="43">
+        <v>630081440</v>
+      </c>
+      <c r="AJ3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM3" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="43">
+        <v>72601</v>
+      </c>
+      <c r="AP3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="43">
+        <v>2560</v>
+      </c>
+      <c r="AU3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ3" s="43">
+        <v>150</v>
+      </c>
+      <c r="BA3" s="43">
         <v>90</v>
       </c>
-      <c r="AN1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB3" s="43">
+        <v>90</v>
+      </c>
+      <c r="BC3" s="43">
+        <v>90</v>
+      </c>
+      <c r="BD3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ3" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS3" s="43">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="43">
+        <v>2560</v>
+      </c>
+      <c r="BU3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX3" s="38"/>
+      <c r="CF3" s="38"/>
+      <c r="CQ3" s="38"/>
+      <c r="CR3" s="38"/>
+      <c r="CS3" s="38"/>
+      <c r="CT3" s="38"/>
+      <c r="CU3" s="38"/>
+      <c r="CV3" s="38"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="38"/>
+      <c r="DC3" s="38"/>
+      <c r="DD3" s="38"/>
+      <c r="DE3" s="38"/>
+      <c r="DF3" s="38"/>
+    </row>
+    <row r="4" spans="1:110" s="9" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="33">
+        <v>150</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="33">
+        <v>2560</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="S4" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="33">
+        <v>72601</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>1234567890</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="33">
+        <v>10005</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="33">
+        <v>630081440</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL4" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="AM4" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO4" s="33">
+        <v>72601</v>
+      </c>
+      <c r="AP4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="33">
+        <v>2560</v>
+      </c>
+      <c r="AU4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX4" s="33">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ4" s="33">
+        <v>150</v>
+      </c>
+      <c r="BA4" s="33">
+        <v>90</v>
+      </c>
+      <c r="BB4" s="33">
+        <v>90</v>
+      </c>
+      <c r="BC4" s="33">
+        <v>90</v>
+      </c>
+      <c r="BD4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ4" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS4" s="33">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="33">
+        <v>2560</v>
+      </c>
+      <c r="BU4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX4" s="30"/>
+      <c r="CF4" s="30"/>
+      <c r="CQ4" s="30"/>
+      <c r="CR4" s="30"/>
+      <c r="CS4" s="30"/>
+      <c r="CT4" s="30"/>
+      <c r="CU4" s="30"/>
+      <c r="CV4" s="30"/>
+      <c r="CW4" s="30"/>
+      <c r="CX4" s="30"/>
+      <c r="CY4" s="30"/>
+      <c r="CZ4" s="30"/>
+      <c r="DA4" s="30"/>
+      <c r="DB4" s="30"/>
+      <c r="DC4" s="30"/>
+      <c r="DD4" s="30"/>
+      <c r="DE4" s="30"/>
+      <c r="DF4" s="30"/>
+    </row>
+    <row r="5" spans="1:110" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="10">
+        <v>400</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2560</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="BE1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BF1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BR1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="17"/>
-      <c r="DE1" s="17"/>
-      <c r="DF1" s="17"/>
-      <c r="DG1" s="17"/>
-    </row>
-    <row r="2" spans="1:111" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV2" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:111" s="38" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="44">
-        <v>150</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="44">
-        <v>2560</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" s="44">
-        <v>72601</v>
-      </c>
-      <c r="W3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="44">
-        <v>1234567890</v>
-      </c>
-      <c r="AA3" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB3" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="44">
-        <v>10005</v>
-      </c>
-      <c r="AE3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG3" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" s="44">
-        <v>630081440</v>
-      </c>
-      <c r="AK3" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL3" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN3" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO3" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" s="44">
-        <v>72601</v>
-      </c>
-      <c r="AQ3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR3" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU3" s="44">
-        <v>2560</v>
-      </c>
-      <c r="AV3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX3" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA3" s="44">
-        <v>150</v>
-      </c>
-      <c r="BB3" s="44">
-        <v>90</v>
-      </c>
-      <c r="BC3" s="44">
-        <v>90</v>
-      </c>
-      <c r="BD3" s="44">
-        <v>90</v>
-      </c>
-      <c r="BE3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ3" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR3" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="BS3" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="44">
-        <v>2560</v>
-      </c>
-      <c r="BV3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY3" s="39"/>
-      <c r="CG3" s="39"/>
-      <c r="CR3" s="39"/>
-      <c r="CS3" s="39"/>
-      <c r="CT3" s="39"/>
-      <c r="CU3" s="39"/>
-      <c r="CV3" s="39"/>
-      <c r="CW3" s="39"/>
-      <c r="CX3" s="39"/>
-      <c r="CY3" s="39"/>
-      <c r="CZ3" s="39"/>
-      <c r="DA3" s="39"/>
-      <c r="DB3" s="39"/>
-      <c r="DC3" s="39"/>
-      <c r="DD3" s="39"/>
-      <c r="DE3" s="39"/>
-      <c r="DF3" s="39"/>
-      <c r="DG3" s="39"/>
-    </row>
-    <row r="4" spans="1:111" s="9" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="34">
-        <v>150</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="34">
-        <v>2560</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="V4" s="34">
-        <v>72601</v>
-      </c>
-      <c r="W4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>1234567890</v>
-      </c>
-      <c r="AA4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="34">
-        <v>10005</v>
-      </c>
-      <c r="AE4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG4" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" s="34">
-        <v>630081440</v>
-      </c>
-      <c r="AK4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN4" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO4" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP4" s="34">
-        <v>72601</v>
-      </c>
-      <c r="AQ4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU4" s="34">
-        <v>2560</v>
-      </c>
-      <c r="AV4" s="34">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX4" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY4" s="34">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA4" s="34">
-        <v>150</v>
-      </c>
-      <c r="BB4" s="34">
-        <v>90</v>
-      </c>
-      <c r="BC4" s="34">
-        <v>90</v>
-      </c>
-      <c r="BD4" s="34">
-        <v>90</v>
-      </c>
-      <c r="BE4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ4" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="BS4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT4" s="34">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="34">
-        <v>2560</v>
-      </c>
-      <c r="BV4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CR4" s="31"/>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31"/>
-      <c r="CZ4" s="31"/>
-      <c r="DA4" s="31"/>
-      <c r="DB4" s="31"/>
-      <c r="DC4" s="31"/>
-      <c r="DD4" s="31"/>
-      <c r="DE4" s="31"/>
-      <c r="DF4" s="31"/>
-      <c r="DG4" s="31"/>
-    </row>
-    <row r="5" spans="1:111" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="10">
-        <v>400</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="10">
-        <v>2560</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>99</v>
@@ -3229,59 +3166,59 @@
       <c r="T5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="10">
+      <c r="U5" s="10">
         <v>72601</v>
       </c>
+      <c r="V5" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="W5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1234567890</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>10005</v>
+      </c>
+      <c r="AD5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>1234567890</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>10005</v>
-      </c>
       <c r="AE5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>150067600</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AF5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>150067600</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ5" s="10">
+      <c r="AI5" s="10">
         <v>630081440</v>
       </c>
+      <c r="AJ5" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="AK5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="AM5" s="10" t="s">
         <v>99</v>
@@ -3289,173 +3226,172 @@
       <c r="AN5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AO5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP5" s="10">
+      <c r="AO5" s="10">
         <v>72601</v>
       </c>
+      <c r="AP5" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="AQ5" s="10" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="AR5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="10">
+        <v>2560</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>150</v>
+      </c>
+      <c r="BA5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AS5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT5" s="10" t="s">
+      <c r="BB5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI5" s="10">
+        <v>250</v>
+      </c>
+      <c r="BJ5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="10">
+        <v>2560</v>
+      </c>
+      <c r="BU5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AU5" s="10">
-        <v>2560</v>
-      </c>
-      <c r="AV5" s="10">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY5" s="10">
+      <c r="BX5" s="30"/>
+      <c r="CF5" s="30"/>
+      <c r="CQ5" s="30"/>
+      <c r="CR5" s="30"/>
+      <c r="CS5" s="30"/>
+      <c r="CT5" s="30"/>
+      <c r="CU5" s="30"/>
+      <c r="CV5" s="30"/>
+      <c r="CW5" s="30"/>
+      <c r="CX5" s="30"/>
+      <c r="CY5" s="30"/>
+      <c r="CZ5" s="30"/>
+      <c r="DA5" s="30"/>
+      <c r="DB5" s="30"/>
+      <c r="DC5" s="30"/>
+      <c r="DD5" s="30"/>
+      <c r="DE5" s="30"/>
+      <c r="DF5" s="30"/>
+    </row>
+    <row r="6" spans="1:110" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="12">
+        <v>400</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AZ5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA5" s="10">
-        <v>150</v>
-      </c>
-      <c r="BB5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="BH5" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ5" s="10">
-        <v>250</v>
-      </c>
-      <c r="BK5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="BS5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT5" s="10">
-        <v>2</v>
-      </c>
-      <c r="BU5" s="10">
-        <v>2560</v>
-      </c>
-      <c r="BV5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CR5" s="31"/>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="31"/>
-      <c r="CU5" s="31"/>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
-      <c r="CX5" s="31"/>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="31"/>
-      <c r="DA5" s="31"/>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="31"/>
-      <c r="DD5" s="31"/>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="31"/>
-      <c r="DG5" s="31"/>
-    </row>
-    <row r="6" spans="1:111" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="12">
-        <v>400</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="Q6" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>99</v>
@@ -3463,59 +3399,59 @@
       <c r="T6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" s="12">
+      <c r="U6" s="12">
         <v>72601</v>
       </c>
+      <c r="V6" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="W6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>1234567890</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>10005</v>
+      </c>
+      <c r="AD6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>1234567890</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>10005</v>
-      </c>
       <c r="AE6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>150067600</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>150067600</v>
-      </c>
-      <c r="AH6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="12">
+      <c r="AI6" s="12">
         <v>630081440</v>
       </c>
+      <c r="AJ6" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="AK6" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="AM6" s="12" t="s">
         <v>99</v>
@@ -3523,131 +3459,127 @@
       <c r="AN6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AO6" s="12" t="s">
+      <c r="AO6" s="12">
+        <v>72601</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>2560</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AP6" s="12">
-        <v>72601</v>
-      </c>
-      <c r="AQ6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR6" s="12" t="s">
+      <c r="AX6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>150</v>
+      </c>
+      <c r="BA6" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AS6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT6" s="12" t="s">
+      <c r="BB6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI6" s="12">
+        <v>150</v>
+      </c>
+      <c r="BJ6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS6" s="12">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="12">
+        <v>2560</v>
+      </c>
+      <c r="BU6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AU6" s="12">
-        <v>2560</v>
-      </c>
-      <c r="AV6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA6" s="12">
-        <v>150</v>
-      </c>
-      <c r="BB6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH6" s="12">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ6" s="12">
-        <v>150</v>
-      </c>
-      <c r="BK6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR6" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="BS6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT6" s="12">
-        <v>2</v>
-      </c>
-      <c r="BU6" s="12">
-        <v>2560</v>
-      </c>
-      <c r="BV6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY6" s="31"/>
-      <c r="CG6" s="31"/>
-      <c r="CR6" s="31"/>
-      <c r="CS6" s="31"/>
-      <c r="CT6" s="31"/>
-      <c r="CU6" s="31"/>
-      <c r="CV6" s="31"/>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
-      <c r="CZ6" s="31"/>
-      <c r="DA6" s="31"/>
-      <c r="DB6" s="31"/>
-      <c r="DC6" s="31"/>
-      <c r="DD6" s="31"/>
-      <c r="DE6" s="31"/>
-      <c r="DF6" s="31"/>
-      <c r="DG6" s="31"/>
+      <c r="BX6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CQ6" s="30"/>
+      <c r="CR6" s="30"/>
+      <c r="CS6" s="30"/>
+      <c r="CT6" s="30"/>
+      <c r="CU6" s="30"/>
+      <c r="CV6" s="30"/>
+      <c r="CW6" s="30"/>
+      <c r="CX6" s="30"/>
+      <c r="CY6" s="30"/>
+      <c r="CZ6" s="30"/>
+      <c r="DA6" s="30"/>
+      <c r="DB6" s="30"/>
+      <c r="DC6" s="30"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="30"/>
+      <c r="DF6" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Freight.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Freight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="121">
   <si>
     <t>Revenue</t>
   </si>
@@ -363,12 +363,36 @@
   </si>
   <si>
     <t xml:space="preserve">Save Label </t>
+  </si>
+  <si>
+    <t>FreightClass2</t>
+  </si>
+  <si>
+    <t>Packaging2</t>
+  </si>
+  <si>
+    <t>Pieces2</t>
+  </si>
+  <si>
+    <t>Units2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Length2</t>
+  </si>
+  <si>
+    <t>Width2</t>
+  </si>
+  <si>
+    <t>Height2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1976,6 +2000,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2011,6 +2052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2195,7 +2253,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2624,31 +2682,31 @@
         <v>37</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="BN2" s="7" t="s">
         <v>8</v>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Freight.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Freight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2000,23 +2000,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2052,23 +2035,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2253,7 +2219,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2749,8 +2715,8 @@
       <c r="E3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>55</v>
+      <c r="F3" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43" t="s">
@@ -2966,8 +2932,8 @@
       <c r="E4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>66</v>
+      <c r="F4" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33" t="s">
@@ -3181,8 +3147,8 @@
       <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>55</v>
+      <c r="F5" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
@@ -3416,8 +3382,8 @@
       <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>66</v>
+      <c r="F6" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
